--- a/working/mcclelland/salmonW.2-1-3.xlsx
+++ b/working/mcclelland/salmonW.2-1-3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/mcclelland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629BECEE-B969-B945-9ED1-F76975E51A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D2CF52-D8A4-1345-A573-1D8177C2D329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4120" windowWidth="20820" windowHeight="11300" xr2:uid="{A1037CCB-9D33-AF47-8C13-73345FBC202B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>cross</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>F2</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,13 +467,10 @@
       <c r="C2">
         <v>0.94181099999999995</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
         <v>1</v>
       </c>
     </row>
@@ -484,14 +484,11 @@
       <c r="C3">
         <v>2.6768999999999998</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="E3">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -504,14 +501,11 @@
       <c r="C4">
         <v>2.2323</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
       <c r="E4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -524,13 +518,10 @@
       <c r="C5">
         <v>1.910299</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -544,14 +535,11 @@
       <c r="C6">
         <v>1.6785000000000001</v>
       </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
       <c r="E6">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
